--- a/Tempo_Atendimentos.xlsx
+++ b/Tempo_Atendimentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistemas Prefeitura\WEB\Controle Urbano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistemas Prefeitura\WEB\Dashboard Atendimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DA835-B8DE-4627-BF11-9C99751504BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743FC6ED-A0B0-41E1-BC5D-C33EE9A2CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{3391CEAA-CB2B-4F47-9AA2-8958C4A4C8DE}"/>
   </bookViews>
@@ -7750,7 +7750,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
